--- a/table_sample.xlsx
+++ b/table_sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darke\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darke\Documents\streamlit-tabulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DC512C-C481-4DC9-9336-E3191D9F4E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEBFD54-D039-4C34-A304-25B0656B118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4530" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{BA255B74-C907-4EA0-9C3C-7FE5FAC153FA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>항목1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>데이터명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법조문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제1조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제2조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEBE8AA6-0386-4C86-8CAC-08C86DDA85DD}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -655,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>9</v>
@@ -664,26 +688,73 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
